--- a/docs/player.xlsx
+++ b/docs/player.xlsx
@@ -1457,16 +1457,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1478,16 +1478,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1499,16 +1499,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1520,16 +1520,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D6" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1541,16 +1541,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1562,16 +1562,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1583,16 +1583,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C9" s="5">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1604,16 +1604,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C10" s="5">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1628,13 +1628,13 @@
         <v>450</v>
       </c>
       <c r="C11" s="5">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1649,13 +1649,13 @@
         <v>500</v>
       </c>
       <c r="C12" s="5">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1670,13 +1670,13 @@
         <v>550</v>
       </c>
       <c r="C13" s="5">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1691,13 +1691,13 @@
         <v>600</v>
       </c>
       <c r="C14" s="5">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1712,13 +1712,13 @@
         <v>650</v>
       </c>
       <c r="C15" s="5">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1733,13 +1733,13 @@
         <v>700</v>
       </c>
       <c r="C16" s="5">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1760,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>

--- a/docs/player.xlsx
+++ b/docs/player.xlsx
@@ -23,7 +23,7 @@
     <t>hp</t>
   </si>
   <si>
-    <t>atk</t>
+    <t>str</t>
   </si>
   <si>
     <t>vit</t>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>

--- a/docs/player.xlsx
+++ b/docs/player.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId4"/>
+    <sheet name="player" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>

--- a/docs/player.xlsx
+++ b/docs/player.xlsx
@@ -1399,7 +1399,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.13281" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.13281" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.55469" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.64062" style="1" customWidth="1"/>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -1499,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -1520,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
@@ -1541,7 +1541,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
@@ -1562,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
@@ -1583,7 +1583,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -1604,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -1625,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>450</v>
+        <v>1800</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
@@ -1646,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
@@ -1667,7 +1667,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>550</v>
+        <v>5000</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
@@ -1688,7 +1688,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
@@ -1709,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>650</v>
+        <v>30000</v>
       </c>
       <c r="C15" s="5">
         <v>5</v>
@@ -1730,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>700</v>
+        <v>50000</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
@@ -1751,7 +1751,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>750</v>
+        <v>80000</v>
       </c>
       <c r="C17" s="5">
         <v>144</v>
@@ -1772,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>800</v>
+        <v>120000</v>
       </c>
       <c r="C18" s="5">
         <v>152</v>
@@ -1793,7 +1793,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>850</v>
+        <v>170000</v>
       </c>
       <c r="C19" s="5">
         <v>160</v>
@@ -1814,7 +1814,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>900</v>
+        <v>250000</v>
       </c>
       <c r="C20" s="5">
         <v>168</v>
@@ -1835,7 +1835,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>950</v>
+        <v>500000</v>
       </c>
       <c r="C21" s="5">
         <v>176</v>
@@ -1856,7 +1856,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="C22" s="5">
         <v>184</v>
@@ -1877,7 +1877,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>1050</v>
+        <v>2000000</v>
       </c>
       <c r="C23" s="5">
         <v>192</v>
@@ -1898,7 +1898,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>1100</v>
+        <v>3000000</v>
       </c>
       <c r="C24" s="5">
         <v>200</v>
@@ -1919,7 +1919,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>1150</v>
+        <v>4000000</v>
       </c>
       <c r="C25" s="5">
         <v>208</v>
@@ -1940,7 +1940,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>1200</v>
+        <v>5000000</v>
       </c>
       <c r="C26" s="5">
         <v>216</v>
@@ -1961,7 +1961,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>1250</v>
+        <v>6000000</v>
       </c>
       <c r="C27" s="5">
         <v>224</v>
@@ -1982,7 +1982,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>1300</v>
+        <v>7000000</v>
       </c>
       <c r="C28" s="5">
         <v>232</v>
@@ -2003,7 +2003,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>1350</v>
+        <v>8000000</v>
       </c>
       <c r="C29" s="5">
         <v>240</v>
@@ -2024,7 +2024,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>1400</v>
+        <v>9000000</v>
       </c>
       <c r="C30" s="5">
         <v>248</v>
@@ -2045,7 +2045,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>1450</v>
+        <v>10000000</v>
       </c>
       <c r="C31" s="5">
         <v>256</v>
@@ -2066,7 +2066,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>1500</v>
+        <v>11000000</v>
       </c>
       <c r="C32" s="5">
         <v>264</v>
@@ -2087,7 +2087,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>1550</v>
+        <v>12000000</v>
       </c>
       <c r="C33" s="5">
         <v>272</v>
@@ -2108,7 +2108,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>1600</v>
+        <v>13000000</v>
       </c>
       <c r="C34" s="5">
         <v>280</v>
@@ -2129,7 +2129,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>1650</v>
+        <v>14000000</v>
       </c>
       <c r="C35" s="5">
         <v>288</v>
@@ -2150,7 +2150,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>1700</v>
+        <v>15000000</v>
       </c>
       <c r="C36" s="5">
         <v>296</v>
@@ -2171,7 +2171,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>1750</v>
+        <v>16000000</v>
       </c>
       <c r="C37" s="5">
         <v>304</v>
@@ -2192,7 +2192,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>1800</v>
+        <v>17000000</v>
       </c>
       <c r="C38" s="5">
         <v>312</v>
@@ -2213,7 +2213,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>1850</v>
+        <v>18000000</v>
       </c>
       <c r="C39" s="5">
         <v>320</v>
@@ -2234,7 +2234,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>1900</v>
+        <v>19000000</v>
       </c>
       <c r="C40" s="5">
         <v>328</v>
@@ -2255,7 +2255,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>1950</v>
+        <v>20000000</v>
       </c>
       <c r="C41" s="5">
         <v>336</v>
@@ -2276,7 +2276,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>2000</v>
+        <v>21000000</v>
       </c>
       <c r="C42" s="5">
         <v>344</v>
@@ -2297,7 +2297,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>2050</v>
+        <v>22000000</v>
       </c>
       <c r="C43" s="5">
         <v>352</v>
@@ -2318,7 +2318,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>2100</v>
+        <v>23000000</v>
       </c>
       <c r="C44" s="5">
         <v>360</v>
@@ -2339,7 +2339,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>2150</v>
+        <v>24000000</v>
       </c>
       <c r="C45" s="5">
         <v>368</v>
@@ -2360,7 +2360,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>2200</v>
+        <v>25000000</v>
       </c>
       <c r="C46" s="5">
         <v>376</v>
@@ -2381,7 +2381,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>2250</v>
+        <v>26000000</v>
       </c>
       <c r="C47" s="5">
         <v>384</v>
@@ -2402,7 +2402,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>2300</v>
+        <v>27000000</v>
       </c>
       <c r="C48" s="5">
         <v>392</v>
@@ -2423,7 +2423,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>2350</v>
+        <v>28000000</v>
       </c>
       <c r="C49" s="5">
         <v>400</v>
@@ -2444,7 +2444,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>2400</v>
+        <v>29000000</v>
       </c>
       <c r="C50" s="5">
         <v>408</v>
@@ -2465,7 +2465,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>2450</v>
+        <v>30000000</v>
       </c>
       <c r="C51" s="5">
         <v>416</v>
@@ -2486,7 +2486,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>2500</v>
+        <v>31000000</v>
       </c>
       <c r="C52" s="5">
         <v>424</v>
@@ -2507,7 +2507,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>2550</v>
+        <v>32000000</v>
       </c>
       <c r="C53" s="5">
         <v>432</v>
@@ -2528,7 +2528,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>2600</v>
+        <v>33000000</v>
       </c>
       <c r="C54" s="5">
         <v>440</v>
@@ -2549,7 +2549,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>2650</v>
+        <v>34000000</v>
       </c>
       <c r="C55" s="5">
         <v>448</v>
@@ -2570,7 +2570,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>2700</v>
+        <v>35000000</v>
       </c>
       <c r="C56" s="5">
         <v>456</v>
@@ -2591,7 +2591,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>2750</v>
+        <v>36000000</v>
       </c>
       <c r="C57" s="5">
         <v>464</v>
@@ -2612,7 +2612,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>2800</v>
+        <v>37000000</v>
       </c>
       <c r="C58" s="5">
         <v>472</v>
@@ -2633,7 +2633,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>2850</v>
+        <v>38000000</v>
       </c>
       <c r="C59" s="5">
         <v>480</v>
@@ -2654,7 +2654,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>2900</v>
+        <v>39000000</v>
       </c>
       <c r="C60" s="5">
         <v>488</v>
@@ -2675,7 +2675,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>2950</v>
+        <v>40000000</v>
       </c>
       <c r="C61" s="5">
         <v>496</v>
@@ -2696,7 +2696,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>3000</v>
+        <v>41000000</v>
       </c>
       <c r="C62" s="5">
         <v>504</v>
@@ -2717,7 +2717,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>3050</v>
+        <v>42000000</v>
       </c>
       <c r="C63" s="5">
         <v>512</v>
@@ -2738,7 +2738,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>3100</v>
+        <v>43000000</v>
       </c>
       <c r="C64" s="5">
         <v>520</v>
@@ -2759,7 +2759,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>3150</v>
+        <v>44000000</v>
       </c>
       <c r="C65" s="5">
         <v>528</v>
@@ -2780,7 +2780,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>3200</v>
+        <v>45000000</v>
       </c>
       <c r="C66" s="5">
         <v>536</v>
@@ -2801,7 +2801,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>3250</v>
+        <v>46000000</v>
       </c>
       <c r="C67" s="5">
         <v>544</v>
@@ -2822,7 +2822,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>3300</v>
+        <v>47000000</v>
       </c>
       <c r="C68" s="5">
         <v>552</v>
@@ -2843,7 +2843,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>3350</v>
+        <v>48000000</v>
       </c>
       <c r="C69" s="5">
         <v>560</v>
@@ -2864,7 +2864,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>3400</v>
+        <v>49000000</v>
       </c>
       <c r="C70" s="5">
         <v>568</v>
@@ -2885,7 +2885,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>3450</v>
+        <v>50000000</v>
       </c>
       <c r="C71" s="5">
         <v>576</v>
@@ -2906,7 +2906,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>3500</v>
+        <v>51000000</v>
       </c>
       <c r="C72" s="5">
         <v>584</v>
@@ -2927,7 +2927,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>3550</v>
+        <v>52000000</v>
       </c>
       <c r="C73" s="5">
         <v>592</v>
@@ -2948,7 +2948,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>3600</v>
+        <v>53000000</v>
       </c>
       <c r="C74" s="5">
         <v>600</v>
@@ -2969,7 +2969,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>3650</v>
+        <v>54000000</v>
       </c>
       <c r="C75" s="5">
         <v>608</v>
@@ -2990,7 +2990,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>3700</v>
+        <v>55000000</v>
       </c>
       <c r="C76" s="5">
         <v>616</v>
@@ -3011,7 +3011,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>3750</v>
+        <v>56000000</v>
       </c>
       <c r="C77" s="5">
         <v>624</v>
@@ -3032,7 +3032,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>3800</v>
+        <v>57000000</v>
       </c>
       <c r="C78" s="5">
         <v>632</v>
@@ -3053,7 +3053,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>3850</v>
+        <v>58000000</v>
       </c>
       <c r="C79" s="5">
         <v>640</v>
@@ -3074,7 +3074,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>3900</v>
+        <v>59000000</v>
       </c>
       <c r="C80" s="5">
         <v>648</v>
@@ -3095,7 +3095,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>3950</v>
+        <v>60000000</v>
       </c>
       <c r="C81" s="5">
         <v>656</v>
@@ -3116,7 +3116,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>4000</v>
+        <v>61000000</v>
       </c>
       <c r="C82" s="5">
         <v>664</v>
@@ -3137,7 +3137,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>4050</v>
+        <v>62000000</v>
       </c>
       <c r="C83" s="5">
         <v>672</v>
@@ -3158,7 +3158,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>4100</v>
+        <v>63000000</v>
       </c>
       <c r="C84" s="5">
         <v>680</v>
@@ -3179,7 +3179,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>4150</v>
+        <v>64000000</v>
       </c>
       <c r="C85" s="5">
         <v>688</v>
@@ -3200,7 +3200,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>4200</v>
+        <v>65000000</v>
       </c>
       <c r="C86" s="5">
         <v>696</v>
@@ -3221,7 +3221,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>4250</v>
+        <v>66000000</v>
       </c>
       <c r="C87" s="5">
         <v>704</v>
@@ -3242,7 +3242,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>4300</v>
+        <v>67000000</v>
       </c>
       <c r="C88" s="5">
         <v>712</v>
@@ -3263,7 +3263,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>4350</v>
+        <v>68000000</v>
       </c>
       <c r="C89" s="5">
         <v>720</v>
@@ -3284,7 +3284,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>4400</v>
+        <v>69000000</v>
       </c>
       <c r="C90" s="5">
         <v>728</v>
@@ -3305,7 +3305,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>4450</v>
+        <v>70000000</v>
       </c>
       <c r="C91" s="5">
         <v>736</v>
@@ -3326,7 +3326,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>4500</v>
+        <v>71000000</v>
       </c>
       <c r="C92" s="5">
         <v>744</v>
@@ -3347,7 +3347,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>4550</v>
+        <v>72000000</v>
       </c>
       <c r="C93" s="5">
         <v>752</v>
@@ -3368,7 +3368,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>4600</v>
+        <v>73000000</v>
       </c>
       <c r="C94" s="5">
         <v>760</v>
@@ -3389,7 +3389,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>4650</v>
+        <v>74000000</v>
       </c>
       <c r="C95" s="5">
         <v>768</v>
@@ -3410,7 +3410,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>4700</v>
+        <v>75000000</v>
       </c>
       <c r="C96" s="5">
         <v>776</v>
@@ -3431,7 +3431,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>4750</v>
+        <v>76000000</v>
       </c>
       <c r="C97" s="5">
         <v>784</v>
@@ -3452,7 +3452,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>4800</v>
+        <v>77000000</v>
       </c>
       <c r="C98" s="5">
         <v>792</v>
@@ -3473,7 +3473,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>4850</v>
+        <v>78000000</v>
       </c>
       <c r="C99" s="5">
         <v>800</v>
@@ -3494,7 +3494,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>4900</v>
+        <v>79000000</v>
       </c>
       <c r="C100" s="5">
         <v>808</v>
@@ -3515,7 +3515,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>4950</v>
+        <v>80000000</v>
       </c>
       <c r="C101" s="5">
         <v>816</v>
@@ -3536,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>5000</v>
+        <v>81000000</v>
       </c>
       <c r="C102" s="5">
         <v>999</v>

--- a/docs/player.xlsx
+++ b/docs/player.xlsx
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>

--- a/docs/player.xlsx
+++ b/docs/player.xlsx
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1481,13 +1481,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1502,13 +1502,13 @@
         <v>50</v>
       </c>
       <c r="C5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1523,7 +1523,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -1544,13 +1544,13 @@
         <v>250</v>
       </c>
       <c r="C7" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1565,13 +1565,13 @@
         <v>500</v>
       </c>
       <c r="C8" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1586,7 +1586,7 @@
         <v>800</v>
       </c>
       <c r="C9" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -1607,13 +1607,13 @@
         <v>1200</v>
       </c>
       <c r="C10" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1628,13 +1628,13 @@
         <v>1800</v>
       </c>
       <c r="C11" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1649,7 +1649,7 @@
         <v>3000</v>
       </c>
       <c r="C12" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -1670,13 +1670,13 @@
         <v>5000</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1691,13 +1691,13 @@
         <v>10000</v>
       </c>
       <c r="C14" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1712,7 +1712,7 @@
         <v>30000</v>
       </c>
       <c r="C15" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -1733,13 +1733,13 @@
         <v>50000</v>
       </c>
       <c r="C16" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1754,13 +1754,13 @@
         <v>80000</v>
       </c>
       <c r="C17" s="5">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1775,13 +1775,13 @@
         <v>120000</v>
       </c>
       <c r="C18" s="5">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="D18" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1796,13 +1796,13 @@
         <v>170000</v>
       </c>
       <c r="C19" s="5">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D19" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1817,13 +1817,13 @@
         <v>250000</v>
       </c>
       <c r="C20" s="5">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="D20" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1838,13 +1838,13 @@
         <v>500000</v>
       </c>
       <c r="C21" s="5">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1859,13 +1859,13 @@
         <v>1000000</v>
       </c>
       <c r="C22" s="5">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="D22" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1880,13 +1880,13 @@
         <v>2000000</v>
       </c>
       <c r="C23" s="5">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="D23" s="5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1901,13 +1901,13 @@
         <v>3000000</v>
       </c>
       <c r="C24" s="5">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D24" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1922,13 +1922,13 @@
         <v>4000000</v>
       </c>
       <c r="C25" s="5">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="D25" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E25" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1943,13 +1943,13 @@
         <v>5000000</v>
       </c>
       <c r="C26" s="5">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="D26" s="5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1964,13 +1964,13 @@
         <v>6000000</v>
       </c>
       <c r="C27" s="5">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="D27" s="5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1985,13 +1985,13 @@
         <v>7000000</v>
       </c>
       <c r="C28" s="5">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="D28" s="5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2006,13 +2006,13 @@
         <v>8000000</v>
       </c>
       <c r="C29" s="5">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="D29" s="5">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2027,13 +2027,13 @@
         <v>9000000</v>
       </c>
       <c r="C30" s="5">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="D30" s="5">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2048,13 +2048,13 @@
         <v>10000000</v>
       </c>
       <c r="C31" s="5">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="D31" s="5">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E31" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2069,13 +2069,13 @@
         <v>11000000</v>
       </c>
       <c r="C32" s="5">
-        <v>264</v>
+        <v>10</v>
       </c>
       <c r="D32" s="5">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2090,13 +2090,13 @@
         <v>12000000</v>
       </c>
       <c r="C33" s="5">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="D33" s="5">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E33" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2111,13 +2111,13 @@
         <v>13000000</v>
       </c>
       <c r="C34" s="5">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="D34" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E34" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2132,13 +2132,13 @@
         <v>14000000</v>
       </c>
       <c r="C35" s="5">
-        <v>288</v>
+        <v>10</v>
       </c>
       <c r="D35" s="5">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2153,13 +2153,13 @@
         <v>15000000</v>
       </c>
       <c r="C36" s="5">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="D36" s="5">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E36" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -2174,13 +2174,13 @@
         <v>16000000</v>
       </c>
       <c r="C37" s="5">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="D37" s="5">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E37" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -2195,13 +2195,13 @@
         <v>17000000</v>
       </c>
       <c r="C38" s="5">
-        <v>312</v>
+        <v>10</v>
       </c>
       <c r="D38" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E38" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2216,13 +2216,13 @@
         <v>18000000</v>
       </c>
       <c r="C39" s="5">
-        <v>320</v>
+        <v>10</v>
       </c>
       <c r="D39" s="5">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -2237,13 +2237,13 @@
         <v>19000000</v>
       </c>
       <c r="C40" s="5">
-        <v>328</v>
+        <v>10</v>
       </c>
       <c r="D40" s="5">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E40" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -2258,13 +2258,13 @@
         <v>20000000</v>
       </c>
       <c r="C41" s="5">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="D41" s="5">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E41" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -2279,13 +2279,13 @@
         <v>21000000</v>
       </c>
       <c r="C42" s="5">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="D42" s="5">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E42" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -2300,13 +2300,13 @@
         <v>22000000</v>
       </c>
       <c r="C43" s="5">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="D43" s="5">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -2321,13 +2321,13 @@
         <v>23000000</v>
       </c>
       <c r="C44" s="5">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="D44" s="5">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -2342,13 +2342,13 @@
         <v>24000000</v>
       </c>
       <c r="C45" s="5">
-        <v>368</v>
+        <v>10</v>
       </c>
       <c r="D45" s="5">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E45" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2363,13 +2363,13 @@
         <v>25000000</v>
       </c>
       <c r="C46" s="5">
-        <v>376</v>
+        <v>10</v>
       </c>
       <c r="D46" s="5">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E46" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -2384,13 +2384,13 @@
         <v>26000000</v>
       </c>
       <c r="C47" s="5">
-        <v>384</v>
+        <v>10</v>
       </c>
       <c r="D47" s="5">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E47" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -2405,13 +2405,13 @@
         <v>27000000</v>
       </c>
       <c r="C48" s="5">
-        <v>392</v>
+        <v>10</v>
       </c>
       <c r="D48" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E48" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -2426,13 +2426,13 @@
         <v>28000000</v>
       </c>
       <c r="C49" s="5">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="D49" s="5">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E49" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -2447,13 +2447,13 @@
         <v>29000000</v>
       </c>
       <c r="C50" s="5">
-        <v>408</v>
+        <v>10</v>
       </c>
       <c r="D50" s="5">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E50" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2468,13 +2468,13 @@
         <v>30000000</v>
       </c>
       <c r="C51" s="5">
-        <v>416</v>
+        <v>10</v>
       </c>
       <c r="D51" s="5">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E51" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -2489,13 +2489,13 @@
         <v>31000000</v>
       </c>
       <c r="C52" s="5">
-        <v>424</v>
+        <v>10</v>
       </c>
       <c r="D52" s="5">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E52" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -2510,13 +2510,13 @@
         <v>32000000</v>
       </c>
       <c r="C53" s="5">
-        <v>432</v>
+        <v>10</v>
       </c>
       <c r="D53" s="5">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E53" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -2531,13 +2531,13 @@
         <v>33000000</v>
       </c>
       <c r="C54" s="5">
-        <v>440</v>
+        <v>10</v>
       </c>
       <c r="D54" s="5">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E54" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -2552,13 +2552,13 @@
         <v>34000000</v>
       </c>
       <c r="C55" s="5">
-        <v>448</v>
+        <v>10</v>
       </c>
       <c r="D55" s="5">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E55" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -2573,13 +2573,13 @@
         <v>35000000</v>
       </c>
       <c r="C56" s="5">
-        <v>456</v>
+        <v>10</v>
       </c>
       <c r="D56" s="5">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E56" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -2594,13 +2594,13 @@
         <v>36000000</v>
       </c>
       <c r="C57" s="5">
-        <v>464</v>
+        <v>10</v>
       </c>
       <c r="D57" s="5">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E57" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -2615,13 +2615,13 @@
         <v>37000000</v>
       </c>
       <c r="C58" s="5">
-        <v>472</v>
+        <v>10</v>
       </c>
       <c r="D58" s="5">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E58" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -2636,13 +2636,13 @@
         <v>38000000</v>
       </c>
       <c r="C59" s="5">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="D59" s="5">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E59" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -2657,13 +2657,13 @@
         <v>39000000</v>
       </c>
       <c r="C60" s="5">
-        <v>488</v>
+        <v>10</v>
       </c>
       <c r="D60" s="5">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="E60" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -2678,13 +2678,13 @@
         <v>40000000</v>
       </c>
       <c r="C61" s="5">
-        <v>496</v>
+        <v>10</v>
       </c>
       <c r="D61" s="5">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E61" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -2699,13 +2699,13 @@
         <v>41000000</v>
       </c>
       <c r="C62" s="5">
-        <v>504</v>
+        <v>10</v>
       </c>
       <c r="D62" s="5">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E62" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -2720,13 +2720,13 @@
         <v>42000000</v>
       </c>
       <c r="C63" s="5">
-        <v>512</v>
+        <v>10</v>
       </c>
       <c r="D63" s="5">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E63" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -2741,13 +2741,13 @@
         <v>43000000</v>
       </c>
       <c r="C64" s="5">
-        <v>520</v>
+        <v>10</v>
       </c>
       <c r="D64" s="5">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E64" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -2762,13 +2762,13 @@
         <v>44000000</v>
       </c>
       <c r="C65" s="5">
-        <v>528</v>
+        <v>10</v>
       </c>
       <c r="D65" s="5">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E65" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -2783,13 +2783,13 @@
         <v>45000000</v>
       </c>
       <c r="C66" s="5">
-        <v>536</v>
+        <v>10</v>
       </c>
       <c r="D66" s="5">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E66" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -2804,13 +2804,13 @@
         <v>46000000</v>
       </c>
       <c r="C67" s="5">
-        <v>544</v>
+        <v>10</v>
       </c>
       <c r="D67" s="5">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="E67" s="5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -2825,13 +2825,13 @@
         <v>47000000</v>
       </c>
       <c r="C68" s="5">
-        <v>552</v>
+        <v>10</v>
       </c>
       <c r="D68" s="5">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E68" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -2846,13 +2846,13 @@
         <v>48000000</v>
       </c>
       <c r="C69" s="5">
-        <v>560</v>
+        <v>10</v>
       </c>
       <c r="D69" s="5">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E69" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -2867,13 +2867,13 @@
         <v>49000000</v>
       </c>
       <c r="C70" s="5">
-        <v>568</v>
+        <v>10</v>
       </c>
       <c r="D70" s="5">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="E70" s="5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -2888,13 +2888,13 @@
         <v>50000000</v>
       </c>
       <c r="C71" s="5">
-        <v>576</v>
+        <v>10</v>
       </c>
       <c r="D71" s="5">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E71" s="5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -2909,13 +2909,13 @@
         <v>51000000</v>
       </c>
       <c r="C72" s="5">
-        <v>584</v>
+        <v>10</v>
       </c>
       <c r="D72" s="5">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E72" s="5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -2930,13 +2930,13 @@
         <v>52000000</v>
       </c>
       <c r="C73" s="5">
-        <v>592</v>
+        <v>10</v>
       </c>
       <c r="D73" s="5">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E73" s="5">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -2951,13 +2951,13 @@
         <v>53000000</v>
       </c>
       <c r="C74" s="5">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="D74" s="5">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="E74" s="5">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -2972,13 +2972,13 @@
         <v>54000000</v>
       </c>
       <c r="C75" s="5">
-        <v>608</v>
+        <v>10</v>
       </c>
       <c r="D75" s="5">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E75" s="5">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -2993,13 +2993,13 @@
         <v>55000000</v>
       </c>
       <c r="C76" s="5">
-        <v>616</v>
+        <v>10</v>
       </c>
       <c r="D76" s="5">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E76" s="5">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -3014,13 +3014,13 @@
         <v>56000000</v>
       </c>
       <c r="C77" s="5">
-        <v>624</v>
+        <v>10</v>
       </c>
       <c r="D77" s="5">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="E77" s="5">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -3035,13 +3035,13 @@
         <v>57000000</v>
       </c>
       <c r="C78" s="5">
-        <v>632</v>
+        <v>10</v>
       </c>
       <c r="D78" s="5">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E78" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -3056,13 +3056,13 @@
         <v>58000000</v>
       </c>
       <c r="C79" s="5">
-        <v>640</v>
+        <v>10</v>
       </c>
       <c r="D79" s="5">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E79" s="5">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -3077,13 +3077,13 @@
         <v>59000000</v>
       </c>
       <c r="C80" s="5">
-        <v>648</v>
+        <v>10</v>
       </c>
       <c r="D80" s="5">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E80" s="5">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -3098,13 +3098,13 @@
         <v>60000000</v>
       </c>
       <c r="C81" s="5">
-        <v>656</v>
+        <v>10</v>
       </c>
       <c r="D81" s="5">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="E81" s="5">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -3119,13 +3119,13 @@
         <v>61000000</v>
       </c>
       <c r="C82" s="5">
-        <v>664</v>
+        <v>10</v>
       </c>
       <c r="D82" s="5">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E82" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -3140,13 +3140,13 @@
         <v>62000000</v>
       </c>
       <c r="C83" s="5">
-        <v>672</v>
+        <v>10</v>
       </c>
       <c r="D83" s="5">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E83" s="5">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -3161,13 +3161,13 @@
         <v>63000000</v>
       </c>
       <c r="C84" s="5">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="D84" s="5">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E84" s="5">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -3182,13 +3182,13 @@
         <v>64000000</v>
       </c>
       <c r="C85" s="5">
-        <v>688</v>
+        <v>10</v>
       </c>
       <c r="D85" s="5">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="E85" s="5">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -3203,13 +3203,13 @@
         <v>65000000</v>
       </c>
       <c r="C86" s="5">
-        <v>696</v>
+        <v>10</v>
       </c>
       <c r="D86" s="5">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="E86" s="5">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -3224,13 +3224,13 @@
         <v>66000000</v>
       </c>
       <c r="C87" s="5">
-        <v>704</v>
+        <v>10</v>
       </c>
       <c r="D87" s="5">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="E87" s="5">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -3245,13 +3245,13 @@
         <v>67000000</v>
       </c>
       <c r="C88" s="5">
-        <v>712</v>
+        <v>10</v>
       </c>
       <c r="D88" s="5">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E88" s="5">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -3266,13 +3266,13 @@
         <v>68000000</v>
       </c>
       <c r="C89" s="5">
-        <v>720</v>
+        <v>10</v>
       </c>
       <c r="D89" s="5">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E89" s="5">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -3287,13 +3287,13 @@
         <v>69000000</v>
       </c>
       <c r="C90" s="5">
-        <v>728</v>
+        <v>10</v>
       </c>
       <c r="D90" s="5">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="E90" s="5">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3308,13 +3308,13 @@
         <v>70000000</v>
       </c>
       <c r="C91" s="5">
-        <v>736</v>
+        <v>10</v>
       </c>
       <c r="D91" s="5">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="E91" s="5">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -3329,13 +3329,13 @@
         <v>71000000</v>
       </c>
       <c r="C92" s="5">
-        <v>744</v>
+        <v>10</v>
       </c>
       <c r="D92" s="5">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E92" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -3350,13 +3350,13 @@
         <v>72000000</v>
       </c>
       <c r="C93" s="5">
-        <v>752</v>
+        <v>10</v>
       </c>
       <c r="D93" s="5">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E93" s="5">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -3371,13 +3371,13 @@
         <v>73000000</v>
       </c>
       <c r="C94" s="5">
-        <v>760</v>
+        <v>10</v>
       </c>
       <c r="D94" s="5">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="E94" s="5">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -3392,13 +3392,13 @@
         <v>74000000</v>
       </c>
       <c r="C95" s="5">
-        <v>768</v>
+        <v>10</v>
       </c>
       <c r="D95" s="5">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="E95" s="5">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -3413,13 +3413,13 @@
         <v>75000000</v>
       </c>
       <c r="C96" s="5">
-        <v>776</v>
+        <v>10</v>
       </c>
       <c r="D96" s="5">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E96" s="5">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -3434,13 +3434,13 @@
         <v>76000000</v>
       </c>
       <c r="C97" s="5">
-        <v>784</v>
+        <v>10</v>
       </c>
       <c r="D97" s="5">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E97" s="5">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -3455,13 +3455,13 @@
         <v>77000000</v>
       </c>
       <c r="C98" s="5">
-        <v>792</v>
+        <v>10</v>
       </c>
       <c r="D98" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E98" s="5">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -3476,13 +3476,13 @@
         <v>78000000</v>
       </c>
       <c r="C99" s="5">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="D99" s="5">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E99" s="5">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -3497,13 +3497,13 @@
         <v>79000000</v>
       </c>
       <c r="C100" s="5">
-        <v>808</v>
+        <v>10</v>
       </c>
       <c r="D100" s="5">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="E100" s="5">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -3518,13 +3518,13 @@
         <v>80000000</v>
       </c>
       <c r="C101" s="5">
-        <v>816</v>
+        <v>10</v>
       </c>
       <c r="D101" s="5">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="E101" s="5">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -3539,13 +3539,13 @@
         <v>81000000</v>
       </c>
       <c r="C102" s="5">
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="D102" s="5">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="E102" s="5">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>

--- a/docs/player.xlsx
+++ b/docs/player.xlsx
@@ -1523,7 +1523,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -1541,16 +1541,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C7" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1562,10 +1562,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C8" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -1583,13 +1583,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C9" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1604,16 +1604,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="C10" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1625,16 +1625,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>1800</v>
+        <v>630</v>
       </c>
       <c r="C11" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1646,16 +1646,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>3000</v>
+        <v>760</v>
       </c>
       <c r="C12" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1667,16 +1667,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>5000</v>
+        <v>900</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1688,13 +1688,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>10000</v>
+        <v>1050</v>
       </c>
       <c r="C14" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1709,16 +1709,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>30000</v>
+        <v>1200</v>
       </c>
       <c r="C15" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1730,13 +1730,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>50000</v>
+        <v>1350</v>
       </c>
       <c r="C16" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1751,16 +1751,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>80000</v>
+        <v>1500</v>
       </c>
       <c r="C17" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1772,13 +1772,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>120000</v>
+        <v>1600</v>
       </c>
       <c r="C18" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1793,16 +1793,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>170000</v>
+        <v>1800</v>
       </c>
       <c r="C19" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1814,16 +1814,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="C20" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1835,16 +1835,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>500000</v>
+        <v>2200</v>
       </c>
       <c r="C21" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1856,16 +1856,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>1000000</v>
+        <v>2400</v>
       </c>
       <c r="C22" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1877,16 +1877,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>2000000</v>
+        <v>2600</v>
       </c>
       <c r="C23" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1898,16 +1898,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>3000000</v>
+        <v>2800</v>
       </c>
       <c r="C24" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1919,16 +1919,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>4000000</v>
+        <v>3000</v>
       </c>
       <c r="C25" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1940,16 +1940,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>5000000</v>
+        <v>3200</v>
       </c>
       <c r="C26" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1961,16 +1961,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>6000000</v>
+        <v>3400</v>
       </c>
       <c r="C27" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1982,16 +1982,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>7000000</v>
+        <v>3600</v>
       </c>
       <c r="C28" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2003,16 +2003,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>8000000</v>
+        <v>3800</v>
       </c>
       <c r="C29" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2024,16 +2024,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>9000000</v>
+        <v>4000</v>
       </c>
       <c r="C30" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D30" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2045,16 +2045,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>10000000</v>
+        <v>4200</v>
       </c>
       <c r="C31" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2066,16 +2066,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>11000000</v>
+        <v>4400</v>
       </c>
       <c r="C32" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2087,16 +2087,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>12000000</v>
+        <v>4600</v>
       </c>
       <c r="C33" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2108,16 +2108,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>13000000</v>
+        <v>4800</v>
       </c>
       <c r="C34" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2129,16 +2129,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>14000000</v>
+        <v>5000</v>
       </c>
       <c r="C35" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2150,16 +2150,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>15000000</v>
+        <v>5200</v>
       </c>
       <c r="C36" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -2171,16 +2171,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>16000000</v>
+        <v>5400</v>
       </c>
       <c r="C37" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -2192,16 +2192,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>17000000</v>
+        <v>5600</v>
       </c>
       <c r="C38" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D38" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2213,16 +2213,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>18000000</v>
+        <v>5800</v>
       </c>
       <c r="C39" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D39" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -2234,16 +2234,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>19000000</v>
+        <v>6000</v>
       </c>
       <c r="C40" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -2255,16 +2255,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>20000000</v>
+        <v>6200</v>
       </c>
       <c r="C41" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -2276,16 +2276,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>21000000</v>
+        <v>6400</v>
       </c>
       <c r="C42" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D42" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -2297,16 +2297,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>22000000</v>
+        <v>6600</v>
       </c>
       <c r="C43" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D43" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -2318,16 +2318,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>23000000</v>
+        <v>6800</v>
       </c>
       <c r="C44" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D44" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -2339,16 +2339,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>24000000</v>
+        <v>7000</v>
       </c>
       <c r="C45" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D45" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2360,16 +2360,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>25000000</v>
+        <v>7200</v>
       </c>
       <c r="C46" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D46" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -2381,16 +2381,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>26000000</v>
+        <v>7400</v>
       </c>
       <c r="C47" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D47" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -2402,16 +2402,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>27000000</v>
+        <v>7600</v>
       </c>
       <c r="C48" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -2423,16 +2423,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>28000000</v>
+        <v>7800</v>
       </c>
       <c r="C49" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D49" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -2444,16 +2444,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>29000000</v>
+        <v>8000</v>
       </c>
       <c r="C50" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2465,16 +2465,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>30000000</v>
+        <v>8200</v>
       </c>
       <c r="C51" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D51" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -2486,16 +2486,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>31000000</v>
+        <v>8400</v>
       </c>
       <c r="C52" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D52" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -2507,16 +2507,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>32000000</v>
+        <v>8600</v>
       </c>
       <c r="C53" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -2528,16 +2528,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>33000000</v>
+        <v>8800</v>
       </c>
       <c r="C54" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -2549,16 +2549,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>34000000</v>
+        <v>9000</v>
       </c>
       <c r="C55" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D55" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -2570,16 +2570,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>35000000</v>
+        <v>9200</v>
       </c>
       <c r="C56" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D56" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -2591,16 +2591,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>36000000</v>
+        <v>9400</v>
       </c>
       <c r="C57" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -2612,16 +2612,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>37000000</v>
+        <v>9600</v>
       </c>
       <c r="C58" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D58" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -2633,16 +2633,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>38000000</v>
+        <v>9800</v>
       </c>
       <c r="C59" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -2654,16 +2654,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>39000000</v>
+        <v>10000</v>
       </c>
       <c r="C60" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -2675,16 +2675,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>40000000</v>
+        <v>10200</v>
       </c>
       <c r="C61" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -2696,16 +2696,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>41000000</v>
+        <v>10400</v>
       </c>
       <c r="C62" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -2717,16 +2717,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>42000000</v>
+        <v>10600</v>
       </c>
       <c r="C63" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -2738,16 +2738,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>43000000</v>
+        <v>10800</v>
       </c>
       <c r="C64" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -2759,16 +2759,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>44000000</v>
+        <v>11000</v>
       </c>
       <c r="C65" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -2780,16 +2780,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>45000000</v>
+        <v>11200</v>
       </c>
       <c r="C66" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -2801,16 +2801,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>46000000</v>
+        <v>11400</v>
       </c>
       <c r="C67" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -2822,16 +2822,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>47000000</v>
+        <v>11600</v>
       </c>
       <c r="C68" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -2843,16 +2843,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>48000000</v>
+        <v>11800</v>
       </c>
       <c r="C69" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D69" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -2864,16 +2864,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>49000000</v>
+        <v>12000</v>
       </c>
       <c r="C70" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -2885,16 +2885,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>50000000</v>
+        <v>12200</v>
       </c>
       <c r="C71" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D71" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -2906,16 +2906,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>51000000</v>
+        <v>12400</v>
       </c>
       <c r="C72" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D72" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -2927,16 +2927,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>52000000</v>
+        <v>12600</v>
       </c>
       <c r="C73" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D73" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -2948,16 +2948,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>53000000</v>
+        <v>12800</v>
       </c>
       <c r="C74" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -2969,16 +2969,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>54000000</v>
+        <v>13000</v>
       </c>
       <c r="C75" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D75" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -2990,16 +2990,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>55000000</v>
+        <v>13200</v>
       </c>
       <c r="C76" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -3011,16 +3011,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>56000000</v>
+        <v>13400</v>
       </c>
       <c r="C77" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D77" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -3032,16 +3032,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>57000000</v>
+        <v>13600</v>
       </c>
       <c r="C78" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D78" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -3053,16 +3053,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>58000000</v>
+        <v>13800</v>
       </c>
       <c r="C79" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -3074,16 +3074,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>59000000</v>
+        <v>14000</v>
       </c>
       <c r="C80" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D80" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -3095,16 +3095,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>60000000</v>
+        <v>14200</v>
       </c>
       <c r="C81" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D81" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -3116,16 +3116,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>61000000</v>
+        <v>14400</v>
       </c>
       <c r="C82" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D82" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -3137,16 +3137,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>62000000</v>
+        <v>14600</v>
       </c>
       <c r="C83" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -3158,16 +3158,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>63000000</v>
+        <v>14800</v>
       </c>
       <c r="C84" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D84" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -3179,16 +3179,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>64000000</v>
+        <v>15000</v>
       </c>
       <c r="C85" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D85" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -3200,16 +3200,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>65000000</v>
+        <v>15200</v>
       </c>
       <c r="C86" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D86" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -3221,16 +3221,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>66000000</v>
+        <v>15400</v>
       </c>
       <c r="C87" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D87" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -3242,16 +3242,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>67000000</v>
+        <v>15600</v>
       </c>
       <c r="C88" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D88" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -3263,16 +3263,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>68000000</v>
+        <v>15800</v>
       </c>
       <c r="C89" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -3284,16 +3284,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>69000000</v>
+        <v>16000</v>
       </c>
       <c r="C90" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D90" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3305,16 +3305,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>70000000</v>
+        <v>16200</v>
       </c>
       <c r="C91" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -3326,16 +3326,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>71000000</v>
+        <v>16400</v>
       </c>
       <c r="C92" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -3347,16 +3347,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>72000000</v>
+        <v>16600</v>
       </c>
       <c r="C93" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -3368,16 +3368,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>73000000</v>
+        <v>16800</v>
       </c>
       <c r="C94" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D94" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -3389,16 +3389,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>74000000</v>
+        <v>17000</v>
       </c>
       <c r="C95" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D95" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -3410,16 +3410,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>75000000</v>
+        <v>17200</v>
       </c>
       <c r="C96" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D96" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -3431,16 +3431,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>76000000</v>
+        <v>17400</v>
       </c>
       <c r="C97" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -3452,16 +3452,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>77000000</v>
+        <v>17600</v>
       </c>
       <c r="C98" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D98" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -3473,16 +3473,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>78000000</v>
+        <v>17800</v>
       </c>
       <c r="C99" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D99" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -3494,16 +3494,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>79000000</v>
+        <v>18000</v>
       </c>
       <c r="C100" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -3515,16 +3515,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>80000000</v>
+        <v>18200</v>
       </c>
       <c r="C101" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -3536,16 +3536,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>81000000</v>
+        <v>18400</v>
       </c>
       <c r="C102" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D102" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
